--- a/NetCore-EFCore-Demo/WebAPI/ExcelData/Data.xlsx
+++ b/NetCore-EFCore-Demo/WebAPI/ExcelData/Data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Demo\NetCore-Demo(EFCore)\NetCore-EFCore-Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Demo\NetCore-Demo(EFCore)\NetCore-EFCore-Demo\WebAPI\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44AC323-D6AF-4182-B7F9-119534D869FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9E9A6E-C5D2-41F3-AF69-00306D61ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8E3E72D-F002-4D53-BC25-14D926AA9BA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C8E3E72D-F002-4D53-BC25-14D926AA9BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="T_USER" sheetId="1" r:id="rId1"/>
+    <sheet name="T_DEVICE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Caprinae</t>
   </si>
@@ -78,6 +79,42 @@
   </si>
   <si>
     <t>Wilie</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>HP-Screen</t>
+  </si>
+  <si>
+    <t>DELL-Laptop</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>MircoPhone</t>
+  </si>
+  <si>
+    <t>H000001</t>
+  </si>
+  <si>
+    <t>H000002</t>
+  </si>
+  <si>
+    <t>H000003</t>
+  </si>
+  <si>
+    <t>H000004</t>
+  </si>
+  <si>
+    <t>H000005</t>
   </si>
 </sst>
 </file>
@@ -113,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DA126B-C55E-4FA5-9856-A0C72568212F}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -621,4 +659,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C40456-DB66-40C2-BC52-70EE3FE3B832}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>